--- a/Data/EUDA/Tampon/frequence_conso_deja_traite.xlsx
+++ b/Data/EUDA/Tampon/frequence_conso_deja_traite.xlsx
@@ -441,37 +441,37 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Daily.deja</t>
+          <t>Daily.deja.frqce_conso</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>4 to 6 days per week.deja</t>
+          <t>4 to 6 days per week.deja.frqce_conso</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2 to 3 days per week.deja</t>
+          <t>2 to 3 days per week.deja.frqce_conso</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Once a week or less.deja</t>
+          <t>Once a week or less.deja.frqce_conso</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Not used in the last 30 days.deja</t>
+          <t>Not used in the last 30 days.deja.frqce_conso</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Not known / missing.deja</t>
+          <t>Not known / missing.deja.frqce_conso</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Total.deja</t>
+          <t>Total.deja.frqce_conso</t>
         </is>
       </c>
     </row>
